--- a/Análisis de avance/INFO DASHBOARD.xlsx
+++ b/Análisis de avance/INFO DASHBOARD.xlsx
@@ -219,11 +219,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,40 +363,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,7 +1423,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1434,7 @@
     <col min="5" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1462,40 +1475,41 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17">
-        <v>0</v>
+      <c r="C2" s="19">
+        <v>5</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" ref="D2:D25" si="0">E2-C2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="17">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="str">
         <f t="shared" ref="F2:F25" si="1">IF(C2=5,"LISTO",IF(C2=0,"PENDIENTE",IF(C2&lt;5,"PROCESO",IF(C2&gt;0,"PENDIENTE"))))</f>
-        <v>PENDIENTE</v>
+        <v>LISTO</v>
       </c>
       <c r="G2">
         <v>63</v>
       </c>
       <c r="H2" s="7">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7">
-        <v>0</v>
+        <f>E26-H2</f>
+        <v>100</v>
       </c>
       <c r="J2" s="8">
         <f>C26</f>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8">
         <f>D26</f>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="L2" s="12">
         <v>38</v>
@@ -1512,52 +1526,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
+      <c r="C3" s="20">
+        <v>5</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="17">
         <v>5</v>
       </c>
       <c r="F3" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>LISTO</v>
       </c>
       <c r="G3">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
+      <c r="C4" s="20">
+        <v>5</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="17">
         <v>5</v>
       </c>
       <c r="F4" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>LISTO</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="20">
         <v>3</v>
       </c>
       <c r="D5" s="17">
@@ -1572,11 +1586,11 @@
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="20">
         <v>2</v>
       </c>
       <c r="D6" s="17">
@@ -1591,11 +1605,11 @@
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="20">
         <v>0</v>
       </c>
       <c r="D7" s="17">
@@ -1610,11 +1624,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="20">
         <v>0</v>
       </c>
       <c r="D8" s="17">
@@ -1629,11 +1643,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>0</v>
       </c>
       <c r="D9" s="17">
@@ -1648,11 +1662,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="17">
@@ -1667,11 +1681,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>0</v>
       </c>
       <c r="D11" s="17">
@@ -1686,11 +1700,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="17">
@@ -1705,11 +1719,11 @@
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="20">
         <v>3</v>
       </c>
       <c r="D13" s="17">
@@ -1724,11 +1738,11 @@
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="20">
         <v>3</v>
       </c>
       <c r="D14" s="17">
@@ -1743,11 +1757,11 @@
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <v>1</v>
       </c>
       <c r="D15" s="17">
@@ -1762,11 +1776,11 @@
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="20">
         <v>0</v>
       </c>
       <c r="D16" s="17">
@@ -1781,11 +1795,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="20">
         <v>0</v>
       </c>
       <c r="D17" s="17">
@@ -1800,11 +1814,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="20">
         <v>0</v>
       </c>
       <c r="D18" s="17">
@@ -1819,11 +1833,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="20">
         <v>0</v>
       </c>
       <c r="D19" s="17">
@@ -1838,11 +1852,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="20">
         <v>5</v>
       </c>
       <c r="D20" s="17">
@@ -1857,11 +1871,11 @@
         <v>LISTO</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="20">
         <v>5</v>
       </c>
       <c r="D21" s="17">
@@ -1876,30 +1890,30 @@
         <v>LISTO</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="17">
-        <v>0</v>
+      <c r="C22" s="20">
+        <v>2</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17">
         <v>5</v>
       </c>
       <c r="F22" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>PROCESO</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="20">
         <v>0</v>
       </c>
       <c r="D23" s="17">
@@ -1914,11 +1928,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="20">
         <v>0</v>
       </c>
       <c r="D24" s="17">
@@ -1933,11 +1947,11 @@
         <v>PENDIENTE</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="20">
         <v>0</v>
       </c>
       <c r="D25" s="17">
@@ -1956,11 +1970,11 @@
       <c r="B26" s="1"/>
       <c r="C26" s="9">
         <f>SUM(C2:C25)</f>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D26" s="9">
         <f>SUM(D2:D25)</f>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E26" s="9">
         <f>SUM(E2:E25)</f>

--- a/Análisis de avance/INFO DASHBOARD.xlsx
+++ b/Análisis de avance/INFO DASHBOARD.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Tarea</t>
   </si>
@@ -213,13 +213,28 @@
   </si>
   <si>
     <t>Presentación Iteración 2</t>
+  </si>
+  <si>
+    <t>Fases</t>
+  </si>
+  <si>
+    <t>Analisis y Planificación</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Implementación y cierre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +277,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -363,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -402,6 +423,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O32"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1431,10 +1456,12 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="11" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1447,35 +1474,38 @@
       <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>43</v>
       </c>
@@ -1489,44 +1519,47 @@
       <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="str">
-        <f t="shared" ref="F2:F25" si="1">IF(C2=5,"LISTO",IF(C2=0,"PENDIENTE",IF(C2&lt;5,"PROCESO",IF(C2&gt;0,"PENDIENTE"))))</f>
-        <v>LISTO</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="17" t="str">
+        <f t="shared" ref="G2:G25" si="1">IF(C2=5,"LISTO",IF(C2=0,"PENDIENTE",IF(C2&lt;5,"PROCESO",IF(C2&gt;0,"PENDIENTE"))))</f>
+        <v>LISTO</v>
+      </c>
+      <c r="H2">
         <v>63</v>
       </c>
-      <c r="H2" s="7">
-        <v>20</v>
-      </c>
       <c r="I2" s="7">
-        <f>E26-H2</f>
-        <v>100</v>
-      </c>
-      <c r="J2" s="8">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7">
+        <f>E26-I2</f>
+        <v>80</v>
+      </c>
+      <c r="K2" s="8">
         <f>C26</f>
-        <v>42</v>
-      </c>
-      <c r="K2" s="8">
+        <v>45</v>
+      </c>
+      <c r="L2" s="8">
         <f>D26</f>
-        <v>78</v>
-      </c>
-      <c r="L2" s="12">
+        <v>75</v>
+      </c>
+      <c r="M2" s="12">
         <v>38</v>
       </c>
-      <c r="M2" s="7">
-        <f>G2-L2</f>
+      <c r="N2" s="7">
+        <f>H2-M2</f>
         <v>25</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <v>12</v>
       </c>
-      <c r="O2" s="8">
-        <f>G3-N2</f>
+      <c r="P2" s="8">
+        <f>H3-O2</f>
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
@@ -1540,15 +1573,18 @@
       <c r="E3" s="17">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>LISTO</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LISTO</v>
+      </c>
+      <c r="H3">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1562,12 +1598,15 @@
       <c r="E4" s="17">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>LISTO</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LISTO</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>46</v>
       </c>
@@ -1581,12 +1620,15 @@
       <c r="E5" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="17" t="str">
+      <c r="F5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
@@ -1600,12 +1642,15 @@
       <c r="E6" s="17">
         <v>5</v>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
@@ -1619,12 +1664,15 @@
       <c r="E7" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
@@ -1638,12 +1686,15 @@
       <c r="E8" s="17">
         <v>5</v>
       </c>
-      <c r="F8" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
@@ -1657,12 +1708,15 @@
       <c r="E9" s="17">
         <v>5</v>
       </c>
-      <c r="F9" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>50</v>
       </c>
@@ -1676,12 +1730,15 @@
       <c r="E10" s="17">
         <v>5</v>
       </c>
-      <c r="F10" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>51</v>
       </c>
@@ -1695,50 +1752,59 @@
       <c r="E11" s="17">
         <v>5</v>
       </c>
-      <c r="F11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="17">
         <v>5</v>
       </c>
-      <c r="F13" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PROCESO</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LISTO</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>54</v>
       </c>
@@ -1752,12 +1818,15 @@
       <c r="E14" s="17">
         <v>5</v>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="17" t="str">
         <f t="shared" si="1"/>
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>29</v>
       </c>
@@ -1771,12 +1840,15 @@
       <c r="E15" s="17">
         <v>5</v>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="17" t="str">
         <f t="shared" si="1"/>
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>55</v>
       </c>
@@ -1790,12 +1862,15 @@
       <c r="E16" s="17">
         <v>5</v>
       </c>
-      <c r="F16" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>30</v>
       </c>
@@ -1809,12 +1884,15 @@
       <c r="E17" s="17">
         <v>5</v>
       </c>
-      <c r="F17" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
@@ -1828,12 +1906,15 @@
       <c r="E18" s="17">
         <v>5</v>
       </c>
-      <c r="F18" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>56</v>
       </c>
@@ -1847,12 +1928,15 @@
       <c r="E19" s="17">
         <v>5</v>
       </c>
-      <c r="F19" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
@@ -1866,12 +1950,15 @@
       <c r="E20" s="17">
         <v>5</v>
       </c>
-      <c r="F20" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>LISTO</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LISTO</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
@@ -1885,12 +1972,15 @@
       <c r="E21" s="17">
         <v>5</v>
       </c>
-      <c r="F21" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>LISTO</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LISTO</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
@@ -1904,12 +1994,15 @@
       <c r="E22" s="17">
         <v>5</v>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="17" t="str">
         <f t="shared" si="1"/>
         <v>PROCESO</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1923,12 +2016,15 @@
       <c r="E23" s="17">
         <v>5</v>
       </c>
-      <c r="F23" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>57</v>
       </c>
@@ -1942,12 +2038,15 @@
       <c r="E24" s="17">
         <v>5</v>
       </c>
-      <c r="F24" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>58</v>
       </c>
@@ -1961,46 +2060,50 @@
       <c r="E25" s="17">
         <v>5</v>
       </c>
-      <c r="F25" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PENDIENTE</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="9">
         <f>SUM(C2:C25)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D26" s="9">
         <f>SUM(D2:D25)</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" s="9">
         <f>SUM(E2:E25)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F1:F26">
+  <conditionalFormatting sqref="G1:G26">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="PENDIENTE">
-      <formula>NOT(ISERROR(SEARCH(("PENDIENTE"),(F1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PENDIENTE"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F26">
+  <conditionalFormatting sqref="G1:G26">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PROCESO">
-      <formula>NOT(ISERROR(SEARCH(("PROCESO"),(F1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PROCESO"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F26">
+  <conditionalFormatting sqref="G1:G26">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="LISTO">
-      <formula>NOT(ISERROR(SEARCH(("LISTO"),(F1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("LISTO"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
